--- a/dev/1.1.1.1.xlsx
+++ b/dev/1.1.1.1.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevSpace\atlantisprojects\divicharts\wordpress\wp-content\plugins\aesa\dev\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86EBE8E-BEAD-4FDA-8DD1-ACFBE1B13057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9707"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="6" r:id="rId1"/>
@@ -131,8 +137,8 @@
     <definedName name="_____________________Imp1">#REF!</definedName>
     <definedName name="_____________________key2" hidden="1">#REF!</definedName>
     <definedName name="_____________________p1">#REF!</definedName>
-    <definedName name="_____________________RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="_____________________RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="_____________________RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="_____________________RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="____________________A2">'[3]R. Natural'!#REF!</definedName>
     <definedName name="____________________bol52">[6]PAG_35!#REF!</definedName>
     <definedName name="____________________BTP1">[7]BTPMP!$A$2:$M$19922</definedName>
@@ -151,8 +157,8 @@
     <definedName name="____________________Imp2">#REF!</definedName>
     <definedName name="____________________key2" hidden="1">#REF!</definedName>
     <definedName name="____________________p1">#REF!</definedName>
-    <definedName name="____________________RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="____________________RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="____________________RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="____________________RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="___________________A2">'[9]R. Natural'!#REF!</definedName>
     <definedName name="___________________bol52">[6]PAG_35!#REF!</definedName>
     <definedName name="___________________BTP1">[7]BTPMP!$A$2:$M$19922</definedName>
@@ -171,8 +177,8 @@
     <definedName name="___________________Imp2">#REF!</definedName>
     <definedName name="___________________key2">#REF!</definedName>
     <definedName name="___________________p1">#REF!</definedName>
-    <definedName name="___________________RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="___________________RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="___________________RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="___________________RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="__________________bol52">[6]PAG_35!#REF!</definedName>
     <definedName name="__________________BTP1">[7]BTPMP!$A$2:$M$19922</definedName>
     <definedName name="__________________BTP2">[7]BTPMS!$A$2:$N$19683</definedName>
@@ -190,8 +196,8 @@
     <definedName name="__________________Imp2">#REF!</definedName>
     <definedName name="__________________key2">#REF!</definedName>
     <definedName name="__________________p1">#REF!</definedName>
-    <definedName name="__________________RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="__________________RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="__________________RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="__________________RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="_________________A2">'[9]R. Natural'!#REF!</definedName>
     <definedName name="_________________bol52">[6]PAG_35!#REF!</definedName>
     <definedName name="_________________BTP1">[7]BTPMP!$A$2:$M$19922</definedName>
@@ -210,8 +216,8 @@
     <definedName name="_________________Imp2">#REF!</definedName>
     <definedName name="_________________key2">#REF!</definedName>
     <definedName name="_________________p1">#REF!</definedName>
-    <definedName name="_________________RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="_________________RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="_________________RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="_________________RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="________________bol52">[6]PAG_35!#REF!</definedName>
     <definedName name="________________BTP1">[7]BTPMP!$A$2:$M$19922</definedName>
     <definedName name="________________BTP2">[7]BTPMS!$A$2:$N$19683</definedName>
@@ -229,8 +235,8 @@
     <definedName name="________________Imp2">#REF!</definedName>
     <definedName name="________________key2">#REF!</definedName>
     <definedName name="________________p1">#REF!</definedName>
-    <definedName name="________________RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="________________RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="________________RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="________________RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="_______________A2">'[9]R. Natural'!#REF!</definedName>
     <definedName name="_______________bol52">[6]PAG_35!#REF!</definedName>
     <definedName name="_______________BTP1">[7]BTPMP!$A$2:$M$19922</definedName>
@@ -249,8 +255,8 @@
     <definedName name="_______________Imp2">#REF!</definedName>
     <definedName name="_______________key2">#REF!</definedName>
     <definedName name="_______________p1">#REF!</definedName>
-    <definedName name="_______________RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="_______________RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="_______________RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="_______________RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="______________bol52">[6]PAG_35!#REF!</definedName>
     <definedName name="______________BTP1">[7]BTPMP!$A$2:$M$19922</definedName>
     <definedName name="______________BTP2">[7]BTPMS!$A$2:$N$19683</definedName>
@@ -268,8 +274,8 @@
     <definedName name="______________Imp2">#REF!</definedName>
     <definedName name="______________key2">#REF!</definedName>
     <definedName name="______________p1">#REF!</definedName>
-    <definedName name="______________RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="______________RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="______________RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="______________RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="_____________A2">'[9]R. Natural'!#REF!</definedName>
     <definedName name="_____________bol52">[6]PAG_35!#REF!</definedName>
     <definedName name="_____________BTP1">[7]BTPMP!$A$2:$M$19922</definedName>
@@ -288,8 +294,8 @@
     <definedName name="_____________Imp2">#REF!</definedName>
     <definedName name="_____________key2">#REF!</definedName>
     <definedName name="_____________p1">#REF!</definedName>
-    <definedName name="_____________RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="_____________RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="_____________RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="_____________RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="____________A2">'[9]R. Natural'!#REF!</definedName>
     <definedName name="____________bol52">[6]PAG_35!#REF!</definedName>
     <definedName name="____________BTP1">[7]BTPMP!$A$2:$M$19922</definedName>
@@ -308,8 +314,8 @@
     <definedName name="____________Imp2">#REF!</definedName>
     <definedName name="____________key2">#REF!</definedName>
     <definedName name="____________p1">#REF!</definedName>
-    <definedName name="____________RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="____________RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="____________RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="____________RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="___________A2">'[9]R. Natural'!#REF!</definedName>
     <definedName name="___________bol52">[6]PAG_35!#REF!</definedName>
     <definedName name="___________BTP1">[7]BTPMP!$A$2:$M$19922</definedName>
@@ -328,8 +334,8 @@
     <definedName name="___________Imp2">#REF!</definedName>
     <definedName name="___________key2">#REF!</definedName>
     <definedName name="___________p1">#REF!</definedName>
-    <definedName name="___________RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="___________RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="___________RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="___________RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="__________A2">'[9]R. Natural'!#REF!</definedName>
     <definedName name="__________bol52">[6]PAG_35!#REF!</definedName>
     <definedName name="__________BTP1">[7]BTPMP!$A$2:$M$19922</definedName>
@@ -348,8 +354,8 @@
     <definedName name="__________Imp2">#REF!</definedName>
     <definedName name="__________key2">#REF!</definedName>
     <definedName name="__________p1">#REF!</definedName>
-    <definedName name="__________RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="__________RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="__________RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="__________RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="_________A2">'[9]R. Natural'!#REF!</definedName>
     <definedName name="_________bol52">[6]PAG_35!#REF!</definedName>
     <definedName name="_________BTP1">[7]BTPMP!$A$2:$M$19922</definedName>
@@ -368,8 +374,8 @@
     <definedName name="_________Imp2">#REF!</definedName>
     <definedName name="_________key2">#REF!</definedName>
     <definedName name="_________p1">#REF!</definedName>
-    <definedName name="_________RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="_________RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="_________RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="_________RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="________A2">'[9]R. Natural'!#REF!</definedName>
     <definedName name="________bol52">[6]PAG_35!#REF!</definedName>
     <definedName name="________BTP1">[7]BTPMP!$A$2:$M$19922</definedName>
@@ -389,8 +395,8 @@
     <definedName name="________Imp2">#REF!</definedName>
     <definedName name="________key2">#REF!</definedName>
     <definedName name="________p1">#REF!</definedName>
-    <definedName name="________RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="________RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="________RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="________RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="________TAB1998">#REF!</definedName>
     <definedName name="________TAB1999">#REF!</definedName>
     <definedName name="________TAB2000">#REF!</definedName>
@@ -416,8 +422,8 @@
     <definedName name="_______Imp2">#REF!</definedName>
     <definedName name="_______key2">#REF!</definedName>
     <definedName name="_______p1">#REF!</definedName>
-    <definedName name="_______RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="_______RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="_______RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="_______RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="_______TAB1998">#REF!</definedName>
     <definedName name="_______TAB1999">#REF!</definedName>
     <definedName name="_______TAB2000">#REF!</definedName>
@@ -443,8 +449,8 @@
     <definedName name="______Imp2">#REF!</definedName>
     <definedName name="______key2">#REF!</definedName>
     <definedName name="______p1">#REF!</definedName>
-    <definedName name="______RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="______RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="______RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="______RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="______TAB1998">#REF!</definedName>
     <definedName name="______TAB1999">#REF!</definedName>
     <definedName name="______TAB2000">#REF!</definedName>
@@ -472,8 +478,8 @@
     <definedName name="_____key2">#REF!</definedName>
     <definedName name="_____p1">#REF!</definedName>
     <definedName name="_____R">#N/A</definedName>
-    <definedName name="_____RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="_____RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="_____RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="_____RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="_____TAB1998">#REF!</definedName>
     <definedName name="_____TAB1999">#REF!</definedName>
     <definedName name="_____TAB2000">#REF!</definedName>
@@ -502,8 +508,8 @@
     <definedName name="____key2">#REF!</definedName>
     <definedName name="____p1">#REF!</definedName>
     <definedName name="____R">#N/A</definedName>
-    <definedName name="____RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="____RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="____RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="____RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="____VAR10">#N/A</definedName>
     <definedName name="____VAR92">#N/A</definedName>
     <definedName name="___A2">'[9]R. Natural'!#REF!</definedName>
@@ -527,8 +533,8 @@
     <definedName name="___key2">#REF!</definedName>
     <definedName name="___p1">#REF!</definedName>
     <definedName name="___R">#N/A</definedName>
-    <definedName name="___RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="___RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="___RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="___RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="___TAB1998">#REF!</definedName>
     <definedName name="___TAB1999">#REF!</definedName>
     <definedName name="___TAB2000">#REF!</definedName>
@@ -540,9 +546,9 @@
     <definedName name="__1_">#REF!</definedName>
     <definedName name="__1__123Graph_ACHART_1" hidden="1">[13]Hoja3!$J$368:$J$408</definedName>
     <definedName name="__123Graph_A" hidden="1">[14]balance!#REF!</definedName>
-    <definedName name="__123Graph_ABONNY" hidden="1">'[15]C1'!#REF!</definedName>
+    <definedName name="__123Graph_ABONNY" hidden="1">[15]C1!#REF!</definedName>
     <definedName name="__123Graph_ACURRENT" hidden="1">[14]balance!#REF!</definedName>
-    <definedName name="__123Graph_B" hidden="1">'[15]C1'!#REF!</definedName>
+    <definedName name="__123Graph_B" hidden="1">[15]C1!#REF!</definedName>
     <definedName name="__123Graph_BCURRENT" hidden="1">[14]balance!#REF!</definedName>
     <definedName name="__123Graph_BLLEGADAS" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_BSALIDAS" hidden="1">#REF!</definedName>
@@ -558,8 +564,8 @@
     <definedName name="__123Graph_ESALIDAS" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_F" hidden="1">[14]balance!#REF!</definedName>
     <definedName name="__123Graph_FCURRENT" hidden="1">[14]balance!#REF!</definedName>
-    <definedName name="__123Graph_X" hidden="1">'[15]C1'!#REF!</definedName>
-    <definedName name="__123Graph_XBONNY" hidden="1">'[15]C1'!#REF!</definedName>
+    <definedName name="__123Graph_X" hidden="1">[15]C1!#REF!</definedName>
+    <definedName name="__123Graph_XBONNY" hidden="1">[15]C1!#REF!</definedName>
     <definedName name="__123Graph_XCURRENT" hidden="1">[14]balance!#REF!</definedName>
     <definedName name="__123Graph_XLLEGADAS" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_XSALIDAS" hidden="1">#REF!</definedName>
@@ -587,8 +593,8 @@
     <definedName name="__key2">#REF!</definedName>
     <definedName name="__p1">#REF!</definedName>
     <definedName name="__R">#REF!</definedName>
-    <definedName name="__RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="__RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="__RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="__RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="__TAB1998">#REF!</definedName>
     <definedName name="__TAB1999">#REF!</definedName>
     <definedName name="__TAB2000">#REF!</definedName>
@@ -745,8 +751,8 @@
     <definedName name="_Parse_Out8">#REF!</definedName>
     <definedName name="_Parse1" hidden="1">#REF!</definedName>
     <definedName name="_R">#REF!</definedName>
-    <definedName name="_RM1">'[8]PAG19'!$B$3:$I$39</definedName>
-    <definedName name="_RM2">'[8]PAG19'!$J$3:$P$39</definedName>
+    <definedName name="_RM1">[8]PAG19!$B$3:$I$39</definedName>
+    <definedName name="_RM2">[8]PAG19!$J$3:$P$39</definedName>
     <definedName name="_S">#REF!</definedName>
     <definedName name="_Sort">#REF!</definedName>
     <definedName name="_sort01">#REF!</definedName>
@@ -795,10 +801,10 @@
     <definedName name="Área2">#REF!</definedName>
     <definedName name="area3">#REF!</definedName>
     <definedName name="area4">#REF!</definedName>
-    <definedName name="AreaDeFechasC1">'[27]c1'!$D$2:$N$2</definedName>
-    <definedName name="AreaDeFechasC3">'[27]c3'!$D$2:$N$2</definedName>
-    <definedName name="AreaDeFechasC5">'[27]c5'!$D$2:$N$2</definedName>
-    <definedName name="AreaDeFechasC6">'[27]c6'!$D$2:$N$2</definedName>
+    <definedName name="AreaDeFechasC1">[27]c1!$D$2:$N$2</definedName>
+    <definedName name="AreaDeFechasC3">[27]c3!$D$2:$N$2</definedName>
+    <definedName name="AreaDeFechasC5">[27]c5!$D$2:$N$2</definedName>
+    <definedName name="AreaDeFechasC6">[27]c6!$D$2:$N$2</definedName>
     <definedName name="AreaDeFechasC8">#REF!</definedName>
     <definedName name="AreaDeFechasDeCuadro1">[27]AhoF!$F$4:$P$4</definedName>
     <definedName name="AreaDeFechasDeCuadro3">[27]Bon!$E$6:$O$6</definedName>
@@ -980,11 +986,11 @@
     <definedName name="daklsñjfkjasñ">[25]PAG_35!#REF!</definedName>
     <definedName name="DAT">[36]DATOS!$A$1:$B$1393</definedName>
     <definedName name="DATA_V9">#REF!</definedName>
-    <definedName name="Database">#REF!</definedName>
+    <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="Database2">[37]OPERACIONES!#REF!</definedName>
     <definedName name="datos">[38]DATOS!$A$1:$B$1393</definedName>
     <definedName name="DATOS_DOS_COMB">[39]DATOS_2MAS!$B$1:$F$2098</definedName>
-    <definedName name="Datos_para_ApéndiceC1">'[27]c1'!$B$1:$N$164</definedName>
+    <definedName name="Datos_para_ApéndiceC1">[27]c1!$B$1:$N$164</definedName>
     <definedName name="DATOS_UN_COMB">[39]DATOS_UNO!$B$1:$M$2098</definedName>
     <definedName name="Datos1">#REF!,#REF!,#REF!</definedName>
     <definedName name="Datos18">#REF!,#REF!,#REF!</definedName>
@@ -1429,14 +1435,14 @@
     <definedName name="Inicio">'[54]02-T_DEP'!#REF!</definedName>
     <definedName name="inicio1">[29]Grafico!$A$60</definedName>
     <definedName name="Input_File">#REF!</definedName>
-    <definedName name="Inputs_C1">'[27]c1'!$A$1:$O$164</definedName>
-    <definedName name="Inputs_C1F">'[27]c1'!$A$4:$O$164</definedName>
-    <definedName name="Inputs_C3">'[27]c3'!$B$1:$O$55</definedName>
-    <definedName name="Inputs_C3F">'[27]c3'!$B$4:$O$55</definedName>
-    <definedName name="Inputs_C5">'[27]c5'!$A$1:$N$31</definedName>
-    <definedName name="Inputs_C5F">'[27]c5'!$A$3:$N$31</definedName>
-    <definedName name="Inputs_C6">'[27]c6'!$B$1:$O$33</definedName>
-    <definedName name="Inputs_C6F">'[27]c6'!$B$4:$O$33</definedName>
+    <definedName name="Inputs_C1">[27]c1!$A$1:$O$164</definedName>
+    <definedName name="Inputs_C1F">[27]c1!$A$4:$O$164</definedName>
+    <definedName name="Inputs_C3">[27]c3!$B$1:$O$55</definedName>
+    <definedName name="Inputs_C3F">[27]c3!$B$4:$O$55</definedName>
+    <definedName name="Inputs_C5">[27]c5!$A$1:$N$31</definedName>
+    <definedName name="Inputs_C5F">[27]c5!$A$3:$N$31</definedName>
+    <definedName name="Inputs_C6">[27]c6!$B$1:$O$33</definedName>
+    <definedName name="Inputs_C6F">[27]c6!$B$4:$O$33</definedName>
     <definedName name="Inputs_C8">#REF!</definedName>
     <definedName name="Inputs_C8F">#REF!</definedName>
     <definedName name="Instrumentos">#REF!</definedName>
@@ -1494,10 +1500,10 @@
     <definedName name="new">'[60]Posición Acumulada'!$G$2</definedName>
     <definedName name="niños">#REF!</definedName>
     <definedName name="NOM">#REF!</definedName>
-    <definedName name="NombresDeSeriesC1">'[27]c1'!$O$9:$O$164</definedName>
-    <definedName name="NombresDeSeriesC3">'[27]c3'!$O$10:$O$41</definedName>
-    <definedName name="NombresDeSeriesC5">'[27]c5'!J22:J1048562</definedName>
-    <definedName name="NombresDeSeriesC6">'[27]c6'!$O$10:$O$31</definedName>
+    <definedName name="NombresDeSeriesC1">[27]c1!$O$9:$O$164</definedName>
+    <definedName name="NombresDeSeriesC3">[27]c3!$O$10:$O$41</definedName>
+    <definedName name="NombresDeSeriesC5">[27]c5!J22:J1048562</definedName>
+    <definedName name="NombresDeSeriesC6">[27]c6!$O$10:$O$31</definedName>
     <definedName name="normal">#REF!</definedName>
     <definedName name="normal2">#REF!</definedName>
     <definedName name="NOTA">#N/A</definedName>
@@ -1533,7 +1539,7 @@
     <definedName name="pñ">#REF!</definedName>
     <definedName name="POB">#REF!</definedName>
     <definedName name="POBLA">[48]IECE4001!$G$3:$G$30</definedName>
-    <definedName name="POBLACION">'[15]C1'!#REF!</definedName>
+    <definedName name="POBLACION">[15]C1!#REF!</definedName>
     <definedName name="pobr1">#REF!</definedName>
     <definedName name="POBREZA">#REF!</definedName>
     <definedName name="Porcentaje">#REF!</definedName>
@@ -1636,7 +1642,7 @@
     <definedName name="Stop_at_age">#REF!</definedName>
     <definedName name="SUPERCOS">#REF!</definedName>
     <definedName name="SUSY">#REF!,#REF!</definedName>
-    <definedName name="svs">'[67]PAG42'!#REF!</definedName>
+    <definedName name="svs">[67]PAG42!#REF!</definedName>
     <definedName name="TAB">#REF!</definedName>
     <definedName name="Tab_Títulos">[27]Titles!$A$5:$E$19</definedName>
     <definedName name="TAB1998___0">#REF!</definedName>
@@ -1850,7 +1856,7 @@
     <definedName name="TABULADO">#REF!</definedName>
     <definedName name="TABULADOFINAL">#REF!</definedName>
     <definedName name="tabx">#REF!</definedName>
-    <definedName name="tahb">[70]cuad3.3!#REF!</definedName>
+    <definedName name="tahb">'[70]cuad3.3'!#REF!</definedName>
     <definedName name="TAX">#REF!</definedName>
     <definedName name="TC">[56]Resumen!$AH$3:$AN$18</definedName>
     <definedName name="TC_2002_3">[55]Monedas!$A$268:$U$291</definedName>
@@ -1892,7 +1898,7 @@
     <definedName name="xRuta">[27]Menu!$C$17</definedName>
     <definedName name="xRuta2">[27]Menu!$C$19</definedName>
     <definedName name="xx">#REF!</definedName>
-    <definedName name="xxAMano">'[27]c1'!$N$164</definedName>
+    <definedName name="xxAMano">[27]c1!$N$164</definedName>
     <definedName name="xxDate">#REF!</definedName>
     <definedName name="xxDEF">[27]Titles!$A$27</definedName>
     <definedName name="xxDesF">#REF!</definedName>
@@ -1900,37 +1906,37 @@
     <definedName name="xxEscalaMínima">[72]SERIES!$V$1</definedName>
     <definedName name="xxFechaFin">[73]Tabla!$AP$3</definedName>
     <definedName name="xxFechaInicio">[73]Tabla!$AP$2</definedName>
-    <definedName name="xxFinalFechasC1">'[27]c1'!$N$3</definedName>
-    <definedName name="xxFinalFechasC3">'[27]c3'!$N$3</definedName>
-    <definedName name="xxFinalFechasC5">'[27]c5'!$N$3</definedName>
-    <definedName name="xxFinalFechasC6">'[27]c6'!$N$3</definedName>
+    <definedName name="xxFinalFechasC1">[27]c1!$N$3</definedName>
+    <definedName name="xxFinalFechasC3">[27]c3!$N$3</definedName>
+    <definedName name="xxFinalFechasC5">[27]c5!$N$3</definedName>
+    <definedName name="xxFinalFechasC6">[27]c6!$N$3</definedName>
     <definedName name="xxFinalFechasC8">#REF!</definedName>
-    <definedName name="xxFinalSeriesC1">'[27]c1'!$B$164</definedName>
-    <definedName name="xxFinalSeriesC3">'[27]c3'!$B$54</definedName>
-    <definedName name="xxFinalSeriesC5">'[27]c5'!$B$31</definedName>
-    <definedName name="xxFinalSeriesC6">'[27]c6'!$B$32</definedName>
+    <definedName name="xxFinalSeriesC1">[27]c1!$B$164</definedName>
+    <definedName name="xxFinalSeriesC3">[27]c3!$B$54</definedName>
+    <definedName name="xxFinalSeriesC5">[27]c5!$B$31</definedName>
+    <definedName name="xxFinalSeriesC6">[27]c6!$B$32</definedName>
     <definedName name="xxFinalSeriesC8">#REF!</definedName>
     <definedName name="xxIdiomaEspañol">[27]Titles!$A$22</definedName>
     <definedName name="xxIdiomaInglés">[27]Titles!$A$23</definedName>
-    <definedName name="xxInicioFechasC1">'[27]c1'!$D$3</definedName>
-    <definedName name="xxInicioFechasC3">'[27]c3'!$D$3</definedName>
-    <definedName name="xxInicioFechasC5">'[27]c5'!$D$3</definedName>
-    <definedName name="xxInicioFechasC6">'[27]c6'!$D$3</definedName>
+    <definedName name="xxInicioFechasC1">[27]c1!$D$3</definedName>
+    <definedName name="xxInicioFechasC3">[27]c3!$D$3</definedName>
+    <definedName name="xxInicioFechasC5">[27]c5!$D$3</definedName>
+    <definedName name="xxInicioFechasC6">[27]c6!$D$3</definedName>
     <definedName name="xxInicioFechasC8">#REF!</definedName>
-    <definedName name="xxInicioSeriesC1">'[27]c1'!$B$10</definedName>
-    <definedName name="xxInicioSeriesC3">'[27]c3'!$B$10</definedName>
-    <definedName name="xxInicioSeriesC5">'[27]c5'!$B$10</definedName>
-    <definedName name="xxInicioSeriesC6">'[27]c6'!$B$10</definedName>
+    <definedName name="xxInicioSeriesC1">[27]c1!$B$10</definedName>
+    <definedName name="xxInicioSeriesC3">[27]c3!$B$10</definedName>
+    <definedName name="xxInicioSeriesC5">[27]c5!$B$10</definedName>
+    <definedName name="xxInicioSeriesC6">[27]c6!$B$10</definedName>
     <definedName name="xxInicioSeriesC8">#REF!</definedName>
     <definedName name="xxInterpol">#REF!</definedName>
     <definedName name="xxLanguage">[27]Titles!$A$3</definedName>
     <definedName name="xxLapso">#REF!</definedName>
     <definedName name="xxLastDate">#REF!</definedName>
     <definedName name="xxMercado">#REF!</definedName>
-    <definedName name="xxNumeroDeFechasC1">'[27]c1'!$N$1</definedName>
-    <definedName name="xxNumeroDeFechasC3">'[27]c3'!$N$1</definedName>
-    <definedName name="xxNumeroDeFechasC5">'[27]c5'!$N$1</definedName>
-    <definedName name="xxNumeroDeFechasC6">'[27]c6'!$N$1</definedName>
+    <definedName name="xxNumeroDeFechasC1">[27]c1!$N$1</definedName>
+    <definedName name="xxNumeroDeFechasC3">[27]c3!$N$1</definedName>
+    <definedName name="xxNumeroDeFechasC5">[27]c5!$N$1</definedName>
+    <definedName name="xxNumeroDeFechasC6">[27]c6!$N$1</definedName>
     <definedName name="xxNumeroDeFechasC8">#REF!</definedName>
     <definedName name="xxOpcionesFAME">[27]Inputs!$A$2</definedName>
     <definedName name="xxPorcentaje">[72]SERIES!$U$1</definedName>
@@ -1976,8 +1982,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2069,9 +2073,6 @@
   </si>
   <si>
     <t>Nota: Es el valor de la temperatura del aire promedio anual en la estación de medición, ubicada principalmente en la capital de departamento.</t>
-  </si>
-  <si>
-    <t>Fuente: MINAM-DGECIA-DIIIA</t>
   </si>
   <si>
     <t>Elaboración: MINAM-DGECIA-DIIIA</t>
@@ -2220,19 +2221,18 @@
   <si>
     <t>6116000 anexo 1839 / 940242366</t>
   </si>
+  <si>
+    <t>Fuente: Senamhi</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2337,144 +2337,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2495,7 +2359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2507,198 +2371,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2856,256 +2534,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3142,36 +2578,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3186,14 +2608,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3208,1396 +2626,67 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="178" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
-    <cellStyle name="Normal 2" xfId="49"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Datos!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2014</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Datos!$A$5:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Amazonas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ancash</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Apurímac</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arequipa</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ayacucho</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cajamarca</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Cusco</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Huancavelica</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Huánuco</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ica</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Junín</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>La Libertad</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Lambayeque</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Datos!$B$5:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>14.9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.4916666666667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.2166666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.1083333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.3916666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.025</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.5083333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.4333333333333</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.3083333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.6583333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20.9416666666667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21.6416666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Datos!$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2015</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Datos!$A$5:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Amazonas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ancash</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Apurímac</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arequipa</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ayacucho</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cajamarca</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Cusco</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Huancavelica</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Huánuco</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ica</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Junín</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>La Libertad</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Lambayeque</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Datos!$C$5:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>15.0983333333333</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.8490909090909</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.4616666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.0816666666667</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.2516666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.5508333333333</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.4041666666667</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.8175</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21.6458333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.5533333333333</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22.2291666666667</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.7525</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Datos!$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2016</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Datos!$A$5:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Amazonas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ancash</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Apurímac</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arequipa</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ayacucho</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cajamarca</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Cusco</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Huancavelica</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Huánuco</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ica</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Junín</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>La Libertad</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Lambayeque</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Datos!$D$5:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>15.6041666666667</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.1375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.8625</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.3033333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.8416666666667</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.615</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.2641666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.8233333333333</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21.3891666666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.8941666666667</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.9841666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>21.2208333333333</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.3666666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Datos!$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>2017</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Datos!$A$5:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>Amazonas</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Ancash</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Apurímac</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Arequipa</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Ayacucho</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cajamarca</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Cusco</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Huancavelica</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Huánuco</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Ica</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Junín</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>La Libertad</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Lambayeque</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Datos!$E$5:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>15.16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.3008333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.2841666666667</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.5883333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.1388888888889</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15.0441666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13.0441666666667</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.36</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>20.9125</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.7058333333333</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12.7591666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20.8763636363636</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22.0166666666667</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="825177088"/>
-        <c:axId val="825178528"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="825177088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="825178528"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="825178528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="825177088"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr lang="en-US"/>
-      </a:pPr>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="8107680" y="1017270"/>
-        <a:ext cx="4625340" cy="2743200"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -4608,11 +2697,17 @@
     <xdr:ext cx="1457325" cy="419100"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="image2.png"/>
+        <xdr:cNvPr id="6" name="image2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4640,11 +2735,17 @@
     <xdr:ext cx="1619250" cy="438150"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="image1.png"/>
+        <xdr:cNvPr id="7" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4666,7 +2767,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="VOLORIGEN"/>
@@ -4691,7 +2792,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cdr1"/>
@@ -4764,7 +2865,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cdrs 1-2"/>
@@ -4779,7 +2880,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
@@ -4796,7 +2897,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAVALI"/>
@@ -4815,7 +2916,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="balance"/>
@@ -4906,7 +3007,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="C1"/>
@@ -4919,7 +3020,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAVALI"/>
@@ -4938,7 +3039,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FINO_METALICA"/>
@@ -4973,7 +3074,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="INDIC_ECON"/>
@@ -5084,7 +3185,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink19.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="01"/>
@@ -5163,7 +3264,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Data"/>
@@ -5176,7 +3277,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink20.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Abastecimiento_datos"/>
@@ -5245,7 +3346,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink21.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="id 2007 urb"/>
@@ -5322,7 +3423,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink22.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Conts"/>
@@ -5379,7 +3480,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink23.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PAG_0"/>
@@ -5450,7 +3551,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink24.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PAG_0"/>
@@ -5529,7 +3630,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink25.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PAG_35"/>
@@ -5616,7 +3717,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink26.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="VIV PAR Y COL 1"/>
@@ -5713,7 +3814,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink27.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Help"/>
@@ -5794,7 +3895,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink28.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
@@ -5811,7 +3912,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink29.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Proyec"/>
@@ -5856,7 +3957,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
@@ -5873,7 +3974,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink30.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="BD_Departamento"/>
@@ -5916,7 +4017,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink31.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ieim4101"/>
@@ -5961,7 +4062,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink32.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Nacional"/>
@@ -6018,7 +4119,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink33.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PAG_0"/>
@@ -6113,7 +4214,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink34.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="cd1"/>
@@ -6194,7 +4295,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink35.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cdr1"/>
@@ -6277,7 +4378,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink36.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PLANTILLA"/>
@@ -6294,7 +4395,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink37.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja3"/>
@@ -6319,7 +4420,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink38.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PLANTILLA"/>
@@ -6342,7 +4443,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink39.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DATOS_UNO"/>
@@ -6361,7 +4462,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cdr1"/>
@@ -6434,7 +4535,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink40.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Códigos"/>
@@ -6457,7 +4558,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink41.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PAG_0"/>
@@ -6530,7 +4631,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink42.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DIALOGO"/>
@@ -6546,7 +4647,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink43.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="ColNeta"/>
@@ -6569,7 +4670,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink44.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PAG_28"/>
@@ -6646,7 +4747,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink45.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Posición Acumulada"/>
@@ -6683,7 +4784,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink46.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Posición Acumulada"/>
@@ -6720,7 +4821,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink47.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="FLUJO-TURISTICO"/>
@@ -6791,7 +4892,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink48.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IECE4001"/>
@@ -6826,7 +4927,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink49.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PAG_0"/>
@@ -6917,7 +5018,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cdrs 1-2"/>
@@ -6930,7 +5031,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink50.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Diario Actual"/>
@@ -6979,7 +5080,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink51.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PAG_0"/>
@@ -7050,7 +5151,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink52.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Carátula"/>
@@ -7227,7 +5328,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink53.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PET-P"/>
@@ -7259,7 +5360,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink54.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="01-credt-XmonedaySet"/>
@@ -7318,7 +5419,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink55.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Supuestos"/>
@@ -7365,7 +5466,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink56.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Resumen"/>
@@ -7408,7 +5509,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink57.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="pobreza2007FINAL (CON PAGIN (2)"/>
@@ -7445,7 +5546,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink58.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Menu"/>
@@ -7490,7 +5591,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink59.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="MINDATA"/>
@@ -7513,7 +5614,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PAG_35"/>
@@ -7538,7 +5639,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink60.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Posición Acumulada"/>
@@ -7579,7 +5680,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink61.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Carátula"/>
@@ -7690,7 +5791,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink62.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Filtros"/>
@@ -7713,7 +5814,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink63.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PAG_0"/>
@@ -7784,7 +5885,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink64.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PAG_0"/>
@@ -7865,7 +5966,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink65.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Uso mayor1"/>
@@ -7908,7 +6009,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink66.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Filtros"/>
@@ -7931,7 +6032,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink67.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Gráficos"/>
@@ -8032,7 +6133,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink68.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="DEP"/>
@@ -8051,7 +6152,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink69.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Códigos"/>
@@ -8078,7 +6179,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CDMP"/>
@@ -8139,7 +6240,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink70.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="graf 2,1"/>
@@ -8186,7 +6287,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink71.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="D1"/>
@@ -8269,7 +6370,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink72.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Menú"/>
@@ -8314,7 +6415,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink73.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tabla"/>
@@ -8371,7 +6472,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink74.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PAG_000"/>
@@ -8444,7 +6545,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="PAG19"/>
@@ -8471,7 +6572,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
@@ -8739,1248 +6840,1247 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4" s="29">
         <v>2014</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="29">
         <v>2015</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="29">
         <v>2016</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="29">
         <v>2017</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="29">
         <v>2018</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="29">
         <v>2019</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="29">
         <v>2020</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="29">
         <v>2021</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="29">
         <v>2022</v>
       </c>
-      <c r="K4" s="44">
+      <c r="K4" s="35">
         <v>2023</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="31">
         <v>14.9</v>
       </c>
-      <c r="C5" s="40">
-        <v>15.0983333333333</v>
-      </c>
-      <c r="D5" s="40">
+      <c r="C5" s="31">
+        <v>15.098333333333301</v>
+      </c>
+      <c r="D5" s="31">
         <v>15.6041666666667</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="31">
         <v>15.16</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="31">
         <v>14.85</v>
       </c>
-      <c r="G5" s="40">
-        <v>15.0166666666667</v>
-      </c>
-      <c r="H5" s="40">
-        <v>15.3416666666667</v>
-      </c>
-      <c r="I5" s="40">
-        <v>14.9916666666667</v>
-      </c>
-      <c r="J5" s="45">
-        <v>14.9916666666667</v>
-      </c>
-      <c r="K5" s="46">
-        <v>15.4833333333333</v>
+      <c r="G5" s="31">
+        <v>15.016666666666699</v>
+      </c>
+      <c r="H5" s="31">
+        <v>15.341666666666701</v>
+      </c>
+      <c r="I5" s="31">
+        <v>14.991666666666699</v>
+      </c>
+      <c r="J5" s="36">
+        <v>14.991666666666699</v>
+      </c>
+      <c r="K5" s="37">
+        <v>15.483333333333301</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="40">
-        <v>12.4916666666667</v>
-      </c>
-      <c r="C6" s="40">
-        <v>12.8490909090909</v>
-      </c>
-      <c r="D6" s="40">
-        <v>13.1375</v>
-      </c>
-      <c r="E6" s="40">
+      <c r="B6" s="31">
+        <v>12.491666666666699</v>
+      </c>
+      <c r="C6" s="31">
+        <v>12.849090909090901</v>
+      </c>
+      <c r="D6" s="31">
+        <v>13.137499999999999</v>
+      </c>
+      <c r="E6" s="31">
         <v>12.3008333333333</v>
       </c>
-      <c r="F6" s="40">
-        <v>12.0333333333333</v>
-      </c>
-      <c r="G6" s="40">
+      <c r="F6" s="31">
+        <v>12.033333333333299</v>
+      </c>
+      <c r="G6" s="31">
         <v>12.45</v>
       </c>
-      <c r="H6" s="41">
+      <c r="H6" s="32">
         <v>13.4</v>
       </c>
-      <c r="I6" s="40">
-        <v>11.1598213680861</v>
-      </c>
-      <c r="J6" s="45">
-        <v>11.0687766830252</v>
-      </c>
-      <c r="K6" s="46">
-        <v>12.3111111111111</v>
+      <c r="I6" s="31">
+        <v>11.159821368086099</v>
+      </c>
+      <c r="J6" s="36">
+        <v>11.068776683025201</v>
+      </c>
+      <c r="K6" s="37">
+        <v>12.311111111111099</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="40">
-        <v>14.2166666666667</v>
-      </c>
-      <c r="C7" s="40">
+      <c r="B7" s="31">
+        <v>14.216666666666701</v>
+      </c>
+      <c r="C7" s="31">
         <v>14.4616666666667</v>
       </c>
-      <c r="D7" s="40">
-        <v>14.8625</v>
-      </c>
-      <c r="E7" s="40">
+      <c r="D7" s="31">
+        <v>14.862500000000001</v>
+      </c>
+      <c r="E7" s="31">
         <v>14.2841666666667</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="31">
         <v>14.2</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="31">
         <v>14.55</v>
       </c>
-      <c r="H7" s="41">
+      <c r="H7" s="32">
         <v>15.5</v>
       </c>
-      <c r="I7" s="40">
-        <v>13.5793163956696</v>
-      </c>
-      <c r="J7" s="45">
+      <c r="I7" s="31">
+        <v>13.579316395669601</v>
+      </c>
+      <c r="J7" s="36">
         <v>15.5555555555556</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7" s="37">
         <v>14.4</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="40">
-        <v>16.1083333333333</v>
-      </c>
-      <c r="C8" s="40">
-        <v>17.0816666666667</v>
-      </c>
-      <c r="D8" s="40">
-        <v>17.3033333333333</v>
-      </c>
-      <c r="E8" s="40">
-        <v>16.5883333333333</v>
-      </c>
-      <c r="F8" s="40">
-        <v>16.6166666666667</v>
-      </c>
-      <c r="G8" s="40">
+      <c r="B8" s="31">
+        <v>16.108333333333299</v>
+      </c>
+      <c r="C8" s="31">
+        <v>17.081666666666699</v>
+      </c>
+      <c r="D8" s="31">
+        <v>17.303333333333299</v>
+      </c>
+      <c r="E8" s="31">
+        <v>16.588333333333299</v>
+      </c>
+      <c r="F8" s="31">
+        <v>16.616666666666699</v>
+      </c>
+      <c r="G8" s="31">
         <v>16.9583333333333</v>
       </c>
-      <c r="H8" s="41">
-        <v>17.4</v>
-      </c>
-      <c r="I8" s="40">
-        <v>16.2416666666667</v>
-      </c>
-      <c r="J8" s="45">
-        <v>16.0083333333333</v>
-      </c>
-      <c r="K8" s="46">
-        <v>17.3416666666667</v>
+      <c r="H8" s="32">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I8" s="31">
+        <v>16.241666666666699</v>
+      </c>
+      <c r="J8" s="36">
+        <v>16.008333333333301</v>
+      </c>
+      <c r="K8" s="37">
+        <v>17.341666666666701</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="40">
-        <v>18.3916666666667</v>
-      </c>
-      <c r="C9" s="40">
-        <v>18.2516666666667</v>
-      </c>
-      <c r="D9" s="40">
-        <v>18.8416666666667</v>
-      </c>
-      <c r="E9" s="40">
+      <c r="B9" s="31">
+        <v>18.391666666666701</v>
+      </c>
+      <c r="C9" s="31">
+        <v>18.251666666666701</v>
+      </c>
+      <c r="D9" s="31">
+        <v>18.841666666666701</v>
+      </c>
+      <c r="E9" s="31">
         <v>18.1388888888889</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="31">
         <v>17.0833333333333</v>
       </c>
-      <c r="G9" s="40">
+      <c r="G9" s="31">
         <v>16.98</v>
       </c>
-      <c r="H9" s="40">
-        <v>18.19</v>
-      </c>
-      <c r="I9" s="40">
-        <v>17.4416666666667</v>
-      </c>
-      <c r="J9" s="45">
+      <c r="H9" s="31">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="I9" s="31">
+        <v>17.441666666666698</v>
+      </c>
+      <c r="J9" s="36">
         <v>17.7</v>
       </c>
-      <c r="K9" s="46">
-        <v>17.9</v>
+      <c r="K9" s="37">
+        <v>17.899999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="31">
         <v>15.025</v>
       </c>
-      <c r="C10" s="40">
+      <c r="C10" s="31">
         <v>15.375</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="31">
         <v>15.615</v>
       </c>
-      <c r="E10" s="40">
-        <v>15.0441666666667</v>
-      </c>
-      <c r="F10" s="40">
-        <v>14.8666666666667</v>
-      </c>
-      <c r="G10" s="40">
+      <c r="E10" s="31">
+        <v>15.044166666666699</v>
+      </c>
+      <c r="F10" s="31">
+        <v>14.866666666666699</v>
+      </c>
+      <c r="G10" s="31">
         <v>14.9583333333333</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="31">
         <v>15.4555555555556</v>
       </c>
-      <c r="I10" s="40">
-        <v>14.9083333333333</v>
-      </c>
-      <c r="J10" s="45">
+      <c r="I10" s="31">
+        <v>14.908333333333299</v>
+      </c>
+      <c r="J10" s="36">
         <v>14.8083333333333</v>
       </c>
-      <c r="K10" s="46">
-        <v>15.3916666666667</v>
+      <c r="K10" s="37">
+        <v>15.391666666666699</v>
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="40">
-        <v>12.5083333333333</v>
-      </c>
-      <c r="C11" s="40">
+      <c r="B11" s="31">
+        <v>12.508333333333301</v>
+      </c>
+      <c r="C11" s="31">
         <v>12.5508333333333</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="31">
         <v>13.2641666666667</v>
       </c>
-      <c r="E11" s="40">
-        <v>13.0441666666667</v>
-      </c>
-      <c r="F11" s="40">
-        <v>12.5916666666667</v>
-      </c>
-      <c r="G11" s="40">
-        <v>12.8916666666667</v>
-      </c>
-      <c r="H11" s="40">
+      <c r="E11" s="31">
+        <v>13.044166666666699</v>
+      </c>
+      <c r="F11" s="31">
+        <v>12.591666666666701</v>
+      </c>
+      <c r="G11" s="31">
+        <v>12.891666666666699</v>
+      </c>
+      <c r="H11" s="31">
         <v>14.01</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="31">
         <v>14.04</v>
       </c>
-      <c r="J11" s="45">
-        <v>12.5090909090909</v>
-      </c>
-      <c r="K11" s="46">
+      <c r="J11" s="36">
+        <v>12.509090909090901</v>
+      </c>
+      <c r="K11" s="37">
         <v>12.6</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="40">
+      <c r="B12" s="31">
         <v>10.35</v>
       </c>
-      <c r="C12" s="40">
-        <v>10.4041666666667</v>
-      </c>
-      <c r="D12" s="40">
+      <c r="C12" s="31">
+        <v>10.404166666666701</v>
+      </c>
+      <c r="D12" s="31">
         <v>10.8233333333333</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="31">
         <v>10.36</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="31">
         <v>10.35</v>
       </c>
-      <c r="G12" s="40">
-        <v>10.7333333333333</v>
-      </c>
-      <c r="H12" s="40">
+      <c r="G12" s="31">
+        <v>10.733333333333301</v>
+      </c>
+      <c r="H12" s="31">
         <v>11.0714285714286</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="31">
         <v>10.2916666666667</v>
       </c>
-      <c r="J12" s="45">
+      <c r="J12" s="36">
         <v>10.725</v>
       </c>
-      <c r="K12" s="46">
-        <v>10.7333333333333</v>
+      <c r="K12" s="37">
+        <v>10.733333333333301</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="40">
-        <v>20.4333333333333</v>
-      </c>
-      <c r="C13" s="40">
-        <v>20.8175</v>
-      </c>
-      <c r="D13" s="40">
+      <c r="B13" s="31">
+        <v>20.433333333333302</v>
+      </c>
+      <c r="C13" s="31">
+        <v>20.817499999999999</v>
+      </c>
+      <c r="D13" s="31">
         <v>21.3891666666667</v>
       </c>
-      <c r="E13" s="40">
-        <v>20.9125</v>
-      </c>
-      <c r="F13" s="40">
-        <v>20.2416666666667</v>
-      </c>
-      <c r="G13" s="40">
-        <v>20.4416666666667</v>
-      </c>
-      <c r="H13" s="40">
-        <v>21.0777777777778</v>
-      </c>
-      <c r="I13" s="40">
-        <v>20.825</v>
-      </c>
-      <c r="J13" s="45">
-        <v>20.8916666666667</v>
-      </c>
-      <c r="K13" s="46">
-        <v>21.0166666666667</v>
+      <c r="E13" s="31">
+        <v>20.912500000000001</v>
+      </c>
+      <c r="F13" s="31">
+        <v>20.241666666666699</v>
+      </c>
+      <c r="G13" s="31">
+        <v>20.441666666666698</v>
+      </c>
+      <c r="H13" s="31">
+        <v>21.077777777777801</v>
+      </c>
+      <c r="I13" s="31">
+        <v>20.824999999999999</v>
+      </c>
+      <c r="J13" s="36">
+        <v>20.891666666666701</v>
+      </c>
+      <c r="K13" s="37">
+        <v>21.016666666666701</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="40">
-        <v>21.3083333333333</v>
-      </c>
-      <c r="C14" s="40">
+      <c r="B14" s="31">
+        <v>21.308333333333302</v>
+      </c>
+      <c r="C14" s="31">
         <v>21.6458333333333</v>
       </c>
-      <c r="D14" s="40">
-        <v>22.8941666666667</v>
-      </c>
-      <c r="E14" s="40">
-        <v>22.7058333333333</v>
-      </c>
-      <c r="F14" s="40">
-        <v>22.3666666666667</v>
-      </c>
-      <c r="G14" s="40">
-        <v>22.1166666666667</v>
-      </c>
-      <c r="H14" s="40">
-        <v>22.6714285714286</v>
-      </c>
-      <c r="I14" s="40">
+      <c r="D14" s="31">
+        <v>22.894166666666699</v>
+      </c>
+      <c r="E14" s="31">
+        <v>22.705833333333299</v>
+      </c>
+      <c r="F14" s="31">
+        <v>22.366666666666699</v>
+      </c>
+      <c r="G14" s="31">
+        <v>22.116666666666699</v>
+      </c>
+      <c r="H14" s="31">
+        <v>22.671428571428599</v>
+      </c>
+      <c r="I14" s="31">
         <v>22.04</v>
       </c>
-      <c r="J14" s="45">
-        <v>20.8083333333333</v>
-      </c>
-      <c r="K14" s="46">
-        <v>22.9083333333333</v>
+      <c r="J14" s="36">
+        <v>20.808333333333302</v>
+      </c>
+      <c r="K14" s="37">
+        <v>22.908333333333299</v>
       </c>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="40">
-        <v>12.6583333333333</v>
-      </c>
-      <c r="C15" s="40">
-        <v>12.5533333333333</v>
-      </c>
-      <c r="D15" s="40">
-        <v>12.9841666666667</v>
-      </c>
-      <c r="E15" s="40">
-        <v>12.7591666666667</v>
-      </c>
-      <c r="F15" s="40">
-        <v>12.3416666666667</v>
-      </c>
-      <c r="G15" s="40">
-        <v>12.3454545454545</v>
-      </c>
-      <c r="H15" s="40">
+      <c r="B15" s="31">
+        <v>12.658333333333299</v>
+      </c>
+      <c r="C15" s="31">
+        <v>12.553333333333301</v>
+      </c>
+      <c r="D15" s="31">
+        <v>12.984166666666701</v>
+      </c>
+      <c r="E15" s="31">
+        <v>12.759166666666699</v>
+      </c>
+      <c r="F15" s="31">
+        <v>12.341666666666701</v>
+      </c>
+      <c r="G15" s="31">
+        <v>12.345454545454499</v>
+      </c>
+      <c r="H15" s="31">
         <v>13.25</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="31">
         <v>12.6833333333333</v>
       </c>
-      <c r="J15" s="45">
-        <v>12.5083333333333</v>
-      </c>
-      <c r="K15" s="46">
-        <v>12.4083333333333</v>
+      <c r="J15" s="36">
+        <v>12.508333333333301</v>
+      </c>
+      <c r="K15" s="37">
+        <v>12.408333333333299</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="40">
-        <v>20.9416666666667</v>
-      </c>
-      <c r="C16" s="40">
+      <c r="B16" s="31">
+        <v>20.941666666666698</v>
+      </c>
+      <c r="C16" s="31">
         <v>22.2291666666667</v>
       </c>
-      <c r="D16" s="40">
-        <v>21.2208333333333</v>
-      </c>
-      <c r="E16" s="40">
+      <c r="D16" s="31">
+        <v>21.220833333333299</v>
+      </c>
+      <c r="E16" s="31">
         <v>20.8763636363636</v>
       </c>
-      <c r="F16" s="40">
-        <v>20.025</v>
-      </c>
-      <c r="G16" s="40">
-        <v>20.6166666666667</v>
-      </c>
-      <c r="H16" s="40">
+      <c r="F16" s="31">
+        <v>20.024999999999999</v>
+      </c>
+      <c r="G16" s="31">
+        <v>20.616666666666699</v>
+      </c>
+      <c r="H16" s="31">
         <v>20.1666666666667</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="31">
         <v>19.7083333333333</v>
       </c>
-      <c r="J16" s="45">
-        <v>18.8416666666667</v>
-      </c>
-      <c r="K16" s="46">
-        <v>22.9416666666667</v>
+      <c r="J16" s="36">
+        <v>18.841666666666701</v>
+      </c>
+      <c r="K16" s="37">
+        <v>22.941666666666698</v>
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="40">
-        <v>21.6416666666667</v>
-      </c>
-      <c r="C17" s="40">
-        <v>22.7525</v>
-      </c>
-      <c r="D17" s="40">
-        <v>22.3666666666667</v>
-      </c>
-      <c r="E17" s="40">
-        <v>22.0166666666667</v>
-      </c>
-      <c r="F17" s="40">
-        <v>20.925</v>
-      </c>
-      <c r="G17" s="40">
+      <c r="B17" s="31">
+        <v>21.641666666666701</v>
+      </c>
+      <c r="C17" s="31">
+        <v>22.752500000000001</v>
+      </c>
+      <c r="D17" s="31">
+        <v>22.366666666666699</v>
+      </c>
+      <c r="E17" s="31">
+        <v>22.016666666666701</v>
+      </c>
+      <c r="F17" s="31">
+        <v>20.925000000000001</v>
+      </c>
+      <c r="G17" s="31">
         <v>21.45</v>
       </c>
-      <c r="H17" s="40">
-        <v>20.8111111111111</v>
-      </c>
-      <c r="I17" s="40">
-        <v>20.5166666666667</v>
-      </c>
-      <c r="J17" s="45">
-        <v>19.825</v>
-      </c>
-      <c r="K17" s="46">
+      <c r="H17" s="31">
+        <v>20.811111111111099</v>
+      </c>
+      <c r="I17" s="31">
+        <v>20.516666666666701</v>
+      </c>
+      <c r="J17" s="36">
+        <v>19.824999999999999</v>
+      </c>
+      <c r="K17" s="37">
         <v>23.85</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="40">
-        <v>19.4666666666667</v>
-      </c>
-      <c r="C18" s="40">
-        <v>20.8127272727273</v>
-      </c>
-      <c r="D18" s="40">
+      <c r="B18" s="31">
+        <v>19.466666666666701</v>
+      </c>
+      <c r="C18" s="31">
+        <v>20.812727272727301</v>
+      </c>
+      <c r="D18" s="31">
         <v>20.2558333333333</v>
       </c>
-      <c r="E18" s="40">
-        <v>20.0741666666667</v>
-      </c>
-      <c r="F18" s="40">
-        <v>19.475</v>
-      </c>
-      <c r="G18" s="40">
-        <v>19.575</v>
-      </c>
-      <c r="H18" s="41">
-        <v>23.8666666666667</v>
-      </c>
-      <c r="I18" s="40">
-        <v>18.4774393941401</v>
-      </c>
-      <c r="J18" s="45">
-        <v>17.992932599153</v>
-      </c>
-      <c r="K18" s="46">
+      <c r="E18" s="31">
+        <v>20.074166666666699</v>
+      </c>
+      <c r="F18" s="31">
+        <v>19.475000000000001</v>
+      </c>
+      <c r="G18" s="31">
+        <v>19.574999999999999</v>
+      </c>
+      <c r="H18" s="32">
+        <v>23.866666666666699</v>
+      </c>
+      <c r="I18" s="31">
+        <v>18.477439394140099</v>
+      </c>
+      <c r="J18" s="36">
+        <v>17.992932599153001</v>
+      </c>
+      <c r="K18" s="37">
         <v>21.45</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="41">
+      <c r="B19" s="32">
         <v>26.7</v>
       </c>
-      <c r="C19" s="40">
-        <v>27.2833333333333</v>
-      </c>
-      <c r="D19" s="40">
-        <v>27.475</v>
-      </c>
-      <c r="E19" s="40">
-        <v>27.525</v>
-      </c>
-      <c r="F19" s="40">
+      <c r="C19" s="31">
+        <v>27.283333333333299</v>
+      </c>
+      <c r="D19" s="31">
+        <v>27.475000000000001</v>
+      </c>
+      <c r="E19" s="31">
+        <v>27.524999999999999</v>
+      </c>
+      <c r="F19" s="31">
         <v>27.2083333333333</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="31">
         <v>27.35</v>
       </c>
-      <c r="H19" s="40">
-        <v>27.6333333333333</v>
-      </c>
-      <c r="I19" s="40">
-        <v>27.4916666666667</v>
-      </c>
-      <c r="J19" s="45">
+      <c r="H19" s="31">
+        <v>27.633333333333301</v>
+      </c>
+      <c r="I19" s="31">
+        <v>27.491666666666699</v>
+      </c>
+      <c r="J19" s="36">
         <v>27.2916666666667</v>
       </c>
-      <c r="K19" s="46">
-        <v>27.9333333333333</v>
+      <c r="K19" s="37">
+        <v>27.933333333333302</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="40">
-        <v>26.5166666666667</v>
-      </c>
-      <c r="C20" s="40">
+      <c r="B20" s="31">
+        <v>26.516666666666701</v>
+      </c>
+      <c r="C20" s="31">
         <v>27.0908333333333</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="31">
         <v>26.9516666666667</v>
       </c>
-      <c r="E20" s="40">
-        <v>26.9775</v>
-      </c>
-      <c r="F20" s="40">
-        <v>26.225</v>
-      </c>
-      <c r="G20" s="40">
+      <c r="E20" s="31">
+        <v>26.977499999999999</v>
+      </c>
+      <c r="F20" s="31">
+        <v>26.225000000000001</v>
+      </c>
+      <c r="G20" s="31">
         <v>26.625</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="31">
         <v>27.54</v>
       </c>
-      <c r="I20" s="40">
-        <v>26.5454545454545</v>
-      </c>
-      <c r="J20" s="45">
+      <c r="I20" s="31">
+        <v>26.545454545454501</v>
+      </c>
+      <c r="J20" s="36">
         <v>26.0833333333333</v>
       </c>
-      <c r="K20" s="46">
-        <v>27.0916666666667</v>
+      <c r="K20" s="37">
+        <v>27.091666666666701</v>
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="40">
-        <v>19.3916666666667</v>
-      </c>
-      <c r="C21" s="40">
-        <v>19.938</v>
-      </c>
-      <c r="D21" s="41">
-        <v>20.905</v>
-      </c>
-      <c r="E21" s="41">
+      <c r="B21" s="31">
+        <v>19.391666666666701</v>
+      </c>
+      <c r="C21" s="31">
+        <v>19.937999999999999</v>
+      </c>
+      <c r="D21" s="32">
+        <v>20.905000000000001</v>
+      </c>
+      <c r="E21" s="32">
         <v>19.904</v>
       </c>
-      <c r="F21" s="40">
-        <v>20.075</v>
-      </c>
-      <c r="G21" s="40">
-        <v>20.025</v>
-      </c>
-      <c r="H21" s="41">
-        <v>20.8666666666667</v>
-      </c>
-      <c r="I21" s="40">
-        <v>18.6083209779708</v>
-      </c>
-      <c r="J21" s="45">
-        <v>19.3583333333333</v>
-      </c>
-      <c r="K21" s="46">
+      <c r="F21" s="31">
+        <v>20.074999999999999</v>
+      </c>
+      <c r="G21" s="31">
+        <v>20.024999999999999</v>
+      </c>
+      <c r="H21" s="32">
+        <v>20.866666666666699</v>
+      </c>
+      <c r="I21" s="31">
+        <v>18.608320977970799</v>
+      </c>
+      <c r="J21" s="36">
+        <v>19.358333333333299</v>
+      </c>
+      <c r="K21" s="37">
         <v>20.8</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="40">
+      <c r="B22" s="31">
         <v>5.18333333333333</v>
       </c>
-      <c r="C22" s="40">
-        <v>5.46416666666667</v>
-      </c>
-      <c r="D22" s="40">
-        <v>5.98583333333333</v>
-      </c>
-      <c r="E22" s="40">
-        <v>5.51444444444444</v>
-      </c>
-      <c r="F22" s="40">
-        <v>5.16666666666667</v>
-      </c>
-      <c r="G22" s="40">
-        <v>5.45833333333333</v>
-      </c>
-      <c r="H22" s="41">
+      <c r="C22" s="31">
+        <v>5.4641666666666699</v>
+      </c>
+      <c r="D22" s="31">
+        <v>5.9858333333333302</v>
+      </c>
+      <c r="E22" s="31">
+        <v>5.5144444444444396</v>
+      </c>
+      <c r="F22" s="31">
+        <v>5.1666666666666696</v>
+      </c>
+      <c r="G22" s="31">
+        <v>5.4583333333333304</v>
+      </c>
+      <c r="H22" s="32">
         <v>5.78</v>
       </c>
-      <c r="I22" s="41">
+      <c r="I22" s="32">
         <v>5.85</v>
       </c>
-      <c r="J22" s="45">
+      <c r="J22" s="36">
         <v>5.4</v>
       </c>
-      <c r="K22" s="46">
-        <v>5.78333333333333</v>
+      <c r="K22" s="37">
+        <v>5.7833333333333297</v>
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="40">
-        <v>25.1909090909091</v>
-      </c>
-      <c r="C23" s="40">
-        <v>26.0645454545455</v>
-      </c>
-      <c r="D23" s="40">
+      <c r="B23" s="31">
+        <v>25.190909090909098</v>
+      </c>
+      <c r="C23" s="31">
+        <v>26.064545454545499</v>
+      </c>
+      <c r="D23" s="31">
         <v>26.0209090909091</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="31">
         <v>24.9590909090909</v>
       </c>
-      <c r="F23" s="40">
+      <c r="F23" s="31">
         <v>24.95</v>
       </c>
-      <c r="G23" s="40">
-        <v>25.3833333333333</v>
-      </c>
-      <c r="H23" s="41">
+      <c r="G23" s="31">
+        <v>25.383333333333301</v>
+      </c>
+      <c r="H23" s="32">
         <v>29.5</v>
       </c>
-      <c r="I23" s="40">
-        <v>23.775</v>
-      </c>
-      <c r="J23" s="45">
+      <c r="I23" s="31">
+        <v>23.774999999999999</v>
+      </c>
+      <c r="J23" s="36">
         <v>22.4714285714286</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="37">
         <v>26.7916666666667</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="31">
         <v>10.5666666666667</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="31">
         <v>10.3233333333333</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="31">
         <v>10.94</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="31">
         <v>10.5625</v>
       </c>
-      <c r="F24" s="40">
-        <v>10.3916666666667</v>
-      </c>
-      <c r="G24" s="40">
-        <v>10.7166666666667</v>
-      </c>
-      <c r="H24" s="41">
-        <v>11.8666666666667</v>
-      </c>
-      <c r="I24" s="40">
-        <v>9.67736484616275</v>
-      </c>
-      <c r="J24" s="45">
-        <v>9.73333333333333</v>
-      </c>
-      <c r="K24" s="47">
+      <c r="F24" s="31">
+        <v>10.391666666666699</v>
+      </c>
+      <c r="G24" s="31">
+        <v>10.716666666666701</v>
+      </c>
+      <c r="H24" s="32">
+        <v>11.866666666666699</v>
+      </c>
+      <c r="I24" s="31">
+        <v>9.6773648461627495</v>
+      </c>
+      <c r="J24" s="36">
+        <v>9.7333333333333307</v>
+      </c>
+      <c r="K24" s="38">
         <v>12.9</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="40">
-        <v>22.7833333333333</v>
-      </c>
-      <c r="C25" s="40">
+      <c r="B25" s="31">
+        <v>22.783333333333299</v>
+      </c>
+      <c r="C25" s="31">
         <v>22.93</v>
       </c>
-      <c r="D25" s="40">
-        <v>23.5775</v>
-      </c>
-      <c r="E25" s="40">
-        <v>23.0641666666667</v>
-      </c>
-      <c r="F25" s="40">
+      <c r="D25" s="31">
+        <v>23.577500000000001</v>
+      </c>
+      <c r="E25" s="31">
+        <v>23.064166666666701</v>
+      </c>
+      <c r="F25" s="31">
         <v>22.75</v>
       </c>
-      <c r="G25" s="40">
+      <c r="G25" s="31">
         <v>22.95</v>
       </c>
-      <c r="H25" s="41">
+      <c r="H25" s="32">
         <v>23.3</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="31">
         <v>23.06</v>
       </c>
-      <c r="J25" s="45">
-        <v>23.3166666666667</v>
-      </c>
-      <c r="K25" s="46">
-        <v>23.4833333333333</v>
+      <c r="J25" s="36">
+        <v>23.316666666666698</v>
+      </c>
+      <c r="K25" s="37">
+        <v>23.483333333333299</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="40">
-        <v>17.925</v>
-      </c>
-      <c r="C26" s="40">
-        <v>18.845</v>
-      </c>
-      <c r="D26" s="40">
-        <v>18.8416666666667</v>
-      </c>
-      <c r="E26" s="40">
-        <v>18.492</v>
-      </c>
-      <c r="F26" s="40">
-        <v>18.475</v>
-      </c>
-      <c r="G26" s="40">
-        <v>18.2166666666667</v>
-      </c>
-      <c r="H26" s="40">
-        <v>18.8222222222222</v>
-      </c>
-      <c r="I26" s="40">
-        <v>17.7583333333333</v>
-      </c>
-      <c r="J26" s="45">
+      <c r="B26" s="31">
+        <v>17.925000000000001</v>
+      </c>
+      <c r="C26" s="31">
+        <v>18.844999999999999</v>
+      </c>
+      <c r="D26" s="31">
+        <v>18.841666666666701</v>
+      </c>
+      <c r="E26" s="31">
+        <v>18.492000000000001</v>
+      </c>
+      <c r="F26" s="31">
+        <v>18.475000000000001</v>
+      </c>
+      <c r="G26" s="31">
+        <v>18.216666666666701</v>
+      </c>
+      <c r="H26" s="31">
+        <v>18.822222222222202</v>
+      </c>
+      <c r="I26" s="31">
+        <v>17.758333333333301</v>
+      </c>
+      <c r="J26" s="36">
         <v>17.45</v>
       </c>
-      <c r="K26" s="46">
-        <v>19.3083333333333</v>
+      <c r="K26" s="37">
+        <v>19.308333333333302</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="40">
-        <v>25.7333333333333</v>
-      </c>
-      <c r="C27" s="40">
-        <v>27.2108333333333</v>
-      </c>
-      <c r="D27" s="40">
-        <v>26.9408333333333</v>
-      </c>
-      <c r="E27" s="40">
-        <v>25.799</v>
-      </c>
-      <c r="F27" s="40">
+      <c r="B27" s="31">
+        <v>25.733333333333299</v>
+      </c>
+      <c r="C27" s="31">
+        <v>27.210833333333301</v>
+      </c>
+      <c r="D27" s="31">
+        <v>26.940833333333298</v>
+      </c>
+      <c r="E27" s="31">
+        <v>25.798999999999999</v>
+      </c>
+      <c r="F27" s="31">
         <v>25.9583333333333</v>
       </c>
-      <c r="G27" s="40">
+      <c r="G27" s="31">
         <v>26.2916666666667</v>
       </c>
-      <c r="H27" s="41">
-        <v>27.5666666666667</v>
-      </c>
-      <c r="I27" s="40">
-        <v>24.5083333333333</v>
-      </c>
-      <c r="J27" s="45">
+      <c r="H27" s="32">
+        <v>27.566666666666698</v>
+      </c>
+      <c r="I27" s="31">
+        <v>24.508333333333301</v>
+      </c>
+      <c r="J27" s="36">
         <v>24.1875</v>
       </c>
-      <c r="K27" s="46">
+      <c r="K27" s="37">
         <v>27.25</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="40">
-        <v>25.4666666666667</v>
-      </c>
-      <c r="C28" s="40">
-        <v>25.9654545454545</v>
-      </c>
-      <c r="D28" s="40">
-        <v>26.0191666666667</v>
-      </c>
-      <c r="E28" s="40">
+      <c r="B28" s="31">
+        <v>25.466666666666701</v>
+      </c>
+      <c r="C28" s="31">
+        <v>25.965454545454499</v>
+      </c>
+      <c r="D28" s="31">
+        <v>26.019166666666699</v>
+      </c>
+      <c r="E28" s="31">
         <v>25.9025</v>
       </c>
-      <c r="F28" s="40">
+      <c r="F28" s="31">
         <v>25.5416666666667</v>
       </c>
-      <c r="G28" s="40">
-        <v>25.7333333333333</v>
-      </c>
-      <c r="H28" s="41">
+      <c r="G28" s="31">
+        <v>25.733333333333299</v>
+      </c>
+      <c r="H28" s="32">
         <v>25.9</v>
       </c>
-      <c r="I28" s="40">
-        <v>25.6833333333333</v>
-      </c>
-      <c r="J28" s="45">
+      <c r="I28" s="31">
+        <v>25.683333333333302</v>
+      </c>
+      <c r="J28" s="36">
         <v>26.1</v>
       </c>
-      <c r="K28" s="46">
+      <c r="K28" s="37">
         <v>26.6</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="42"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="42"/>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="43" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="42"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
+      <c r="A31" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
+      <c r="A32" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="52.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="110.666666666667" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" customWidth="1"/>
+    <col min="3" max="3" width="110.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
+    <row r="1" spans="1:3" ht="15.6">
+      <c r="A1" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="24">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="C5" s="7" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="5" ht="24" spans="1:3">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="8" t="s">
+    <row r="6" spans="1:3" ht="24">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" ht="24" spans="1:3">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="60">
+      <c r="A8" s="9">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>38</v>
       </c>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="8" ht="60" spans="1:3">
-      <c r="A8" s="10">
-        <v>5</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="8" t="s">
+    <row r="9" spans="1:3" ht="48">
+      <c r="A9" s="11">
+        <v>6</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" ht="36" spans="1:3">
-      <c r="A9" s="12">
-        <v>6</v>
-      </c>
-      <c r="B9" s="13" t="s">
+      <c r="C9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="14">
+      <c r="A10" s="41">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="16" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="24">
+      <c r="A11" s="42"/>
+      <c r="B11" s="15" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" ht="24" spans="1:3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="19">
+      <c r="A12" s="16">
         <v>8</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>47</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="12">
+      <c r="A13" s="43">
         <v>9</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="9" t="s">
-        <v>51</v>
+      <c r="A14" s="44"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="12">
+      <c r="A15" s="43">
         <v>10</v>
       </c>
-      <c r="B15" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>50</v>
+      <c r="B15" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="9" t="s">
-        <v>51</v>
+      <c r="A16" s="44"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="10">
+      <c r="A17" s="9">
         <v>11</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <v>12</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="9" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="60">
+      <c r="A19" s="9">
+        <v>13</v>
+      </c>
+      <c r="B19" s="19" t="s">
         <v>56</v>
       </c>
+      <c r="C19" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="19" ht="60" spans="1:3">
-      <c r="A19" s="10">
-        <v>13</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="8" t="s">
+    <row r="20" spans="1:3" ht="48">
+      <c r="A20" s="9">
+        <v>14</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" ht="48" spans="1:3">
-      <c r="A20" s="10">
-        <v>14</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>15</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="30">
+      <c r="A22" s="45">
         <v>16</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>63</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="31"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -9994,11 +8094,10 @@
     <mergeCell ref="B15:B16"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId2" display="https://sinia.minam.gob.pe/"/>
-    <hyperlink ref="C23" r:id="rId3" display="fchile@minam.gob.pe"/>
+    <hyperlink ref="C12" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C23" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/dev/1.1.1.1.xlsx
+++ b/dev/1.1.1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevSpace\atlantisprojects\divicharts\wordpress\wp-content\plugins\aesa\dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B86EBE8E-BEAD-4FDA-8DD1-ACFBE1B13057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9AF601-0D9F-47BD-AEEF-23FB543FAA01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1989,7 +1989,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Nombre del indicador: Número de usuarios que acceden a información ambiental del SINIA: 2014-2023</t>
   </si>
@@ -2073,9 +2073,6 @@
   </si>
   <si>
     <t>Nota: Es el valor de la temperatura del aire promedio anual en la estación de medición, ubicada principalmente en la capital de departamento.</t>
-  </si>
-  <si>
-    <t>Elaboración: MINAM-DGECIA-DIIIA</t>
   </si>
   <si>
     <t>FICHA TÉCNICA DEL INDICADOR</t>
@@ -2222,7 +2219,16 @@
     <t>6116000 anexo 1839 / 940242366</t>
   </si>
   <si>
-    <t>Fuente: Senamhi</t>
+    <t>Fuente:</t>
+  </si>
+  <si>
+    <t>Senamhi</t>
+  </si>
+  <si>
+    <t>MINAM-DGECIA-DIIIA</t>
+  </si>
+  <si>
+    <t>Elaboración: MINAM-DGECIA-DIIIA xxx</t>
   </si>
 </sst>
 </file>
@@ -2230,7 +2236,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="16">
     <font>
@@ -2626,18 +2632,18 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6846,10 +6852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7802,9 +7808,11 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="33"/>
@@ -7817,7 +7825,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="34" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
@@ -7830,6 +7838,21 @@
       <c r="J32" s="33"/>
       <c r="K32" s="33"/>
     </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7839,8 +7862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7851,7 +7874,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.6">
       <c r="A1" s="39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -7871,10 +7894,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="24">
@@ -7882,10 +7905,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24">
@@ -7893,10 +7916,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -7904,10 +7927,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="60">
@@ -7915,10 +7938,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="48">
@@ -7926,10 +7949,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -7937,19 +7960,19 @@
         <v>7</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24">
       <c r="A11" s="42"/>
       <c r="B11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -7957,10 +7980,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>46</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -7968,17 +7991,17 @@
         <v>9</v>
       </c>
       <c r="B13" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="44"/>
       <c r="B14" s="48"/>
       <c r="C14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -7986,17 +8009,17 @@
         <v>10</v>
       </c>
       <c r="B15" s="49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="44"/>
       <c r="B16" s="50"/>
       <c r="C16" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -8004,10 +8027,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8015,10 +8038,10 @@
         <v>12</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60">
@@ -8026,10 +8049,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="48">
@@ -8037,10 +8060,10 @@
         <v>14</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8048,10 +8071,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -8059,28 +8082,28 @@
         <v>16</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="46"/>
       <c r="B23" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="46"/>
       <c r="B24" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>66</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
